--- a/Commsights.MVC/wwwroot/Download/Excel/GoogleSearch.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/GoogleSearch.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sentiment</t>
   </si>
@@ -55,6 +53,9 @@
   </si>
   <si>
     <t>Google search</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -473,18 +474,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="12" width="20.7109375" customWidth="1"/>
+    <col min="1" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.25">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -497,15 +498,16 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="11.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="11.25">
       <c r="B2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -525,52 +527,31 @@
         <v>5</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Commsights.MVC/wwwroot/Download/Excel/GoogleSearch.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/GoogleSearch.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sentiment</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Author</t>
-  </si>
-  <si>
-    <t>Google search</t>
   </si>
   <si>
     <t>URL</t>
@@ -62,10 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,27 +68,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -152,36 +125,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -485,73 +444,48 @@
     <col min="1" max="13" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="20.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="11.25">
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="H2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>